--- a/Estrutura-Projeto/JOB SEA-Projeto/Desenvolvimento/4.Teste/JOB SEA - Roteiro de Teste.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Desenvolvimento/4.Teste/JOB SEA - Roteiro de Teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluisio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluisio\Desktop\jobsea\Estrutura-Projeto\JOB SEA-Projeto\Desenvolvimento\4.Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91595A22-A6CD-4ADC-B451-8BD3FACA4175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBDF60-A4B5-46CA-832A-B394C3838A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="913" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>Massa de Teste:</t>
-  </si>
-  <si>
-    <t>UCS001</t>
-  </si>
-  <si>
-    <t>UCS002</t>
   </si>
   <si>
     <t>Entradas</t>
@@ -1290,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:L2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1314,7 +1308,7 @@
     <row r="2" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="32"/>
       <c r="C2" s="41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -1333,7 +1327,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1367,14 +1361,16 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="33"/>
       <c r="C5" s="28" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="3"/>
       <c r="F5" s="27">
         <v>1</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
       <c r="H5" s="27">
         <v>0</v>
       </c>
@@ -1386,15 +1382,19 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="33"/>
       <c r="C6" s="28" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
       <c r="G6" s="27">
-        <v>2</v>
-      </c>
-      <c r="H6" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1572,7 +1572,7 @@
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="33"/>
       <c r="C20" s="30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="3"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="G21" s="5">
         <f>SUM(G5:G19)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
         <f>SUM(H5:H19)</f>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I21" s="35">
         <f>SUM(F21:H21)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1680,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IT19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -1739,36 +1739,36 @@
     </row>
     <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="IT6" s="8"/>
     </row>
     <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2005,36 +2005,36 @@
     </row>
     <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="IT6" s="8"/>
     </row>
     <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Estrutura-Projeto/JOB SEA-Projeto/Desenvolvimento/4.Teste/JOB SEA - Roteiro de Teste.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Desenvolvimento/4.Teste/JOB SEA - Roteiro de Teste.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluisio\Desktop\jobsea\Estrutura-Projeto\JOB SEA-Projeto\Desenvolvimento\4.Teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluisio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBDF60-A4B5-46CA-832A-B394C3838A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFCAD51-3E72-45E6-A045-79706FCDA87F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="913" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
     <sheet name="AUX" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="UCS001" sheetId="3" r:id="rId3"/>
-    <sheet name="UCS002" sheetId="26" r:id="rId4"/>
+    <sheet name="Manter usuário" sheetId="26" r:id="rId3"/>
+    <sheet name="Manter Projetos" sheetId="28" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="___xlfn_IFERROR">NA()</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -71,6 +71,15 @@
     <t>Massa de Teste:</t>
   </si>
   <si>
+    <t>UCS001</t>
+  </si>
+  <si>
+    <t>UCS002</t>
+  </si>
+  <si>
+    <t>&lt;Nome do Projeto&gt;</t>
+  </si>
+  <si>
     <t>Entradas</t>
   </si>
   <si>
@@ -104,13 +113,103 @@
     <t>Qde. Ciclos</t>
   </si>
   <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Email e senha</t>
+  </si>
+  <si>
+    <t>Acessado</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Nome, data, categoria, local, descrição e foto</t>
+  </si>
+  <si>
+    <t>Usuário cadastrado</t>
+  </si>
+  <si>
+    <t>Editar usuário</t>
+  </si>
+  <si>
+    <t>Cadastrar projeto</t>
+  </si>
+  <si>
+    <t>Descrição do projeto</t>
+  </si>
+  <si>
+    <t>Projeto ativo</t>
+  </si>
+  <si>
+    <t>Manter Projetos</t>
+  </si>
+  <si>
+    <t>ativado/desativado</t>
+  </si>
+  <si>
+    <t>sucesso</t>
+  </si>
+  <si>
+    <t>Verba</t>
+  </si>
+  <si>
+    <t>Valor do projeto</t>
+  </si>
+  <si>
+    <t>Técnicas</t>
+  </si>
+  <si>
+    <t>Técnicas dos desenvolvedores</t>
+  </si>
+  <si>
+    <t>Tempo estimado</t>
+  </si>
+  <si>
+    <t>Tempo estimado para a elaboração do projeto</t>
+  </si>
+  <si>
+    <t>Identificação do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de indentificação do projeto </t>
+  </si>
+  <si>
+    <t>Nome, e-mail e função</t>
+  </si>
+  <si>
+    <t>Nome, e-mail, função e senha</t>
+  </si>
+  <si>
+    <t>Cadastro de usuário</t>
+  </si>
+  <si>
+    <t>Descrição do usuário</t>
+  </si>
+  <si>
     <t>Manter Usuário</t>
   </si>
   <si>
-    <t>Manter Projetos</t>
-  </si>
-  <si>
-    <t>JOB SEA</t>
+    <t>Usuário ativo</t>
+  </si>
+  <si>
+    <t>Identificação do usuário</t>
+  </si>
+  <si>
+    <t>Número de identificação, nome, e-mail, função</t>
+  </si>
+  <si>
+    <t>Usuário deletado</t>
+  </si>
+  <si>
+    <t>Usuário atualizado</t>
+  </si>
+  <si>
+    <t>Usuários descrito</t>
+  </si>
+  <si>
+    <t>Usuário identificado</t>
   </si>
 </sst>
 </file>
@@ -720,7 +819,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -766,9 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,7 +1381,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1306,291 +1402,285 @@
   <sheetData>
     <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32"/>
-      <c r="C2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="34"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="34"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="C5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="28"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>1</v>
       </c>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26">
         <v>0</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="34"/>
+      <c r="L5" s="33"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="33"/>
-      <c r="C6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="28"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="27">
-        <v>0</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0</v>
-      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="34"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="33"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="34"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="33"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="34"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="33"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="34"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="34"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="33"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="34"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="33"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="34"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="33"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="34"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="33"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="34"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="34"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="33"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="34"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="33"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="34"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="33"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="34"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="33"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="34"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="33"/>
-      <c r="C20" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="30"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="29"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="34"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="31">
+      <c r="B21" s="32"/>
+      <c r="C21" s="30">
         <f>COUNTA(C5:C19)</f>
         <v>2</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <f>SUM(D5:D19)</f>
         <v>0</v>
       </c>
@@ -1601,32 +1691,32 @@
       </c>
       <c r="G21" s="5">
         <f>SUM(G5:G19)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="5">
         <f>SUM(H5:H19)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="34">
         <f>SUM(F21:H21)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="34"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1677,56 +1767,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IT19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="82.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="254" width="9.140625" style="7"/>
     <col min="255" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="IT2" s="8"/>
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="21"/>
       <c r="IT4" s="8"/>
     </row>
     <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1734,53 +1825,65 @@
         <v>9</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="IT5" s="8"/>
     </row>
     <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="23" t="s">
-        <v>13</v>
+      <c r="C6" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="IT6" s="8"/>
     </row>
     <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="40" t="s">
+      <c r="A8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="B8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>20</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1802,12 +1905,24 @@
       <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1829,45 +1944,89 @@
       <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="B11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="B13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:254" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
@@ -1876,9 +2035,9 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:254" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
@@ -1887,9 +2046,9 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
@@ -1898,9 +2057,9 @@
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
@@ -1909,9 +2068,9 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
@@ -1920,9 +2079,9 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1942,267 +2101,344 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IT19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="254" width="9.140625" style="7"/>
-    <col min="255" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="82.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="IT1" s="8"/>
-    </row>
-    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="IT2" s="8"/>
-    </row>
-    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="IT3" s="8"/>
-    </row>
-    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="22"/>
-      <c r="IT4" s="8"/>
-    </row>
-    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="46"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="22"/>
-      <c r="IT5" s="8"/>
-    </row>
-    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="21"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="IT6" s="8"/>
-    </row>
-    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="40" t="s">
+      <c r="D8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:254" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>8</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>9</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>10</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>11</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>